--- a/ArticleTCs.xlsx
+++ b/ArticleTCs.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftUni_HomeWork\BLOG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftUni\_GitBlog\New_Blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20310" windowHeight="11715" tabRatio="744" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20316" windowHeight="11712" tabRatio="791" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="TC_Article_001" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <sheet name="TC_Article_06" sheetId="3" r:id="rId6"/>
     <sheet name="TC_Article_07" sheetId="6" r:id="rId7"/>
     <sheet name="TC_Article_08" sheetId="8" r:id="rId8"/>
-    <sheet name="TC_Article_09" sheetId="9" r:id="rId9"/>
-    <sheet name="TC_Article_10" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet12" sheetId="12" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId9"/>
+    <sheet name="TC_Article_09" sheetId="9" r:id="rId10"/>
+    <sheet name="TC_Article_10" sheetId="10" r:id="rId11"/>
     <sheet name="Sheet13" sheetId="13" r:id="rId12"/>
     <sheet name="Sheet1" sheetId="14" r:id="rId13"/>
   </sheets>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="136">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -104,9 +104,6 @@
     <t>1.0</t>
   </si>
   <si>
-    <t xml:space="preserve">The article link is loaded </t>
-  </si>
-  <si>
     <t>User = londa101@abv.bg; Pass = londa101</t>
   </si>
   <si>
@@ -161,33 +158,9 @@
     <t>TC_Article_006</t>
   </si>
   <si>
-    <t>Verify that user can create an aritcle with required text fields</t>
-  </si>
-  <si>
-    <t>Verify that user can create an aritcle without required text fields</t>
-  </si>
-  <si>
-    <t>Verify that user can edit his own aritcle</t>
-  </si>
-  <si>
     <t>User don't have permission to edit foreign article</t>
   </si>
   <si>
-    <t>Verify that user can delete only his own aritcle</t>
-  </si>
-  <si>
-    <t>Verify that user can not edit article owned by another user</t>
-  </si>
-  <si>
-    <t>Verify that user can not delete article owned by another user</t>
-  </si>
-  <si>
-    <t>Verify to cancel creating aritcle</t>
-  </si>
-  <si>
-    <t>Verify that aritcle appears correct in list of articles after creating</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify that can not add a new aricle with existing title </t>
   </si>
   <si>
@@ -195,9 +168,6 @@
   </si>
   <si>
     <t>Deleting an article should remove it from list of  aritcles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that name of the author is appear bottom of the aritcle </t>
   </si>
   <si>
     <t>Verify that name of the author of the aritcle is the same as a name of the login user</t>
@@ -505,28 +475,15 @@
     </r>
   </si>
   <si>
-    <t>Click Create button in the menu</t>
-  </si>
-  <si>
-    <t>Create article site should load</t>
-  </si>
-  <si>
     <t>UI</t>
   </si>
   <si>
     <t>Check the buttons are loads</t>
   </si>
   <si>
-    <t xml:space="preserve"> Modify value should be updated when u have click this
-button</t>
-  </si>
-  <si>
     <t>Click Edit button down the text box</t>
   </si>
   <si>
-    <t>Аn article has been created by another user of the system</t>
-  </si>
-  <si>
     <t>Аn article has been created by user</t>
   </si>
   <si>
@@ -546,9 +503,6 @@
   </si>
   <si>
     <t>http://localhost:60634/Article/Create</t>
-  </si>
-  <si>
-    <t>Click on the name of aritcle</t>
   </si>
   <si>
     <t>http://localhost:60634/Article/Details/</t>
@@ -581,6 +535,374 @@
   </si>
   <si>
     <t>Edit form should load with existing text</t>
+  </si>
+  <si>
+    <t>Аn article has been created by another user of the system. 
+The name of the article: Hello World</t>
+  </si>
+  <si>
+    <t>The validation messages has been displayed: User is not authorized to edit the article!</t>
+  </si>
+  <si>
+    <t>Click on the title of the article</t>
+  </si>
+  <si>
+    <t>Click delete button</t>
+  </si>
+  <si>
+    <r>
+      <t>Verify that user</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can't delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> article owned by another user</t>
+    </r>
+  </si>
+  <si>
+    <t>The validation messages has been displayed: 
+User is not authorized to delete the article!</t>
+  </si>
+  <si>
+    <t>Click on Create button down the text box</t>
+  </si>
+  <si>
+    <t>Click on delete button down the text box</t>
+  </si>
+  <si>
+    <t>Click on delete button</t>
+  </si>
+  <si>
+    <t>The validation messages has been displayed: 
+Do you want to delete the article?</t>
+  </si>
+  <si>
+    <t>Click Yes</t>
+  </si>
+  <si>
+    <t>Click No</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>can cancel creating</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> article</t>
+    </r>
+  </si>
+  <si>
+    <t>Click on create button on the main menu</t>
+  </si>
+  <si>
+    <t>Create article page with fill form should load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The page list of articles is loaded </t>
+  </si>
+  <si>
+    <t>Enter text in the content box</t>
+  </si>
+  <si>
+    <t>Click on cancel button down the text box</t>
+  </si>
+  <si>
+    <t>Should return to page list of articles</t>
+  </si>
+  <si>
+    <t>Verify the title is correct displayed</t>
+  </si>
+  <si>
+    <t>Verify the content is correct displayed</t>
+  </si>
+  <si>
+    <t>Verify the name of the author is correct displayed</t>
+  </si>
+  <si>
+    <t>The title should be displayed correct</t>
+  </si>
+  <si>
+    <t>The content should be displayed correct</t>
+  </si>
+  <si>
+    <t>The authors name should  be displayed correct</t>
+  </si>
+  <si>
+    <r>
+      <t>Verify that the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> article disappears from the lists </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with articles after deleting</t>
+    </r>
+  </si>
+  <si>
+    <t>Details article page should load</t>
+  </si>
+  <si>
+    <t>Delete article page should load</t>
+  </si>
+  <si>
+    <t>The article should be stay</t>
+  </si>
+  <si>
+    <t>The article should been deleted</t>
+  </si>
+  <si>
+    <t>The article should been deleted. The list of articles should displayed.</t>
+  </si>
+  <si>
+    <t>Click on create button down the text box</t>
+  </si>
+  <si>
+    <t>Enter title</t>
+  </si>
+  <si>
+    <t>Enter text in content box</t>
+  </si>
+  <si>
+    <t>The validation messages has been displayed:
+The article with same title already exist!
+Create button should not been submitted and record should not been added</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user can't create aricle with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">existing title </t>
+    </r>
+  </si>
+  <si>
+    <t>TC_Article_004 must be executed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user can </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">create an aritcle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with required text fields</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">can't create an aritcle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>without required text fields</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">can edit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>his own aritcle</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Verify that user</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can't edit article</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> owned by another user</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Verify that user</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> only his own aritcle</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that aritcle </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">appears correct </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in the page list of articles after creating</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name of the author is appear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bottom of the aritcle </t>
+    </r>
+  </si>
+  <si>
+    <t>TC_Article_001 (create an aritcle) must be executed</t>
+  </si>
+  <si>
+    <t>TC_Article_012</t>
+  </si>
+  <si>
+    <t>TC_Article_012 (name of the author) must be executed</t>
   </si>
 </sst>
 </file>
@@ -781,11 +1103,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -793,38 +1119,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -839,15 +1135,35 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -855,11 +1171,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1180,66 +1502,66 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:E20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="5" max="5" width="37.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="39" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K2" s="38"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1252,7 +1574,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1265,30 +1587,30 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="21">
+      <c r="E5" s="31"/>
+      <c r="F5" s="32">
         <v>42856</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="39" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="31"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1301,106 +1623,106 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="2"/>
       <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2"/>
       <c r="F9" s="10">
         <v>2</v>
       </c>
-      <c r="G9" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2"/>
       <c r="F10" s="10">
         <v>3</v>
       </c>
-      <c r="G10" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2"/>
       <c r="F11" s="10">
         <v>4</v>
       </c>
-      <c r="G11" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1413,12 +1735,12 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1430,7 +1752,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1443,161 +1765,161 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="28" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="28" t="s">
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>1</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="26" t="s">
+      <c r="B17" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="26" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>2</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="26" t="s">
+      <c r="E18" s="14"/>
+      <c r="F18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="26" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>3</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="26" t="s">
+      <c r="B19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="26" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>4</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="26" t="s">
+      <c r="B20" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="26" t="s">
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1612,30 +1934,25 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="B11:D11"/>
@@ -1645,25 +1962,30 @@
     <mergeCell ref="D15:E16"/>
     <mergeCell ref="F15:H16"/>
     <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1"/>
@@ -1678,56 +2000,61 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="41.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="5" max="5" width="45.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K2" s="38"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1740,7 +2067,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1753,30 +2080,30 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21">
+      <c r="E5" s="31"/>
+      <c r="F5" s="32">
         <v>42856</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="17" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="31"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1789,100 +2116,98 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="2"/>
       <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2"/>
       <c r="F9" s="10">
         <v>2</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="29"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2"/>
       <c r="F10" s="10">
         <v>3</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2"/>
       <c r="F11" s="10">
         <v>4</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1895,12 +2220,12 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1912,7 +2237,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1925,195 +2250,158 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="28" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="28" t="s">
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>1</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="26" t="s">
+      <c r="B17" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="26" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>2</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="26" t="s">
+      <c r="E18" s="14"/>
+      <c r="F18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="26" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>3</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="26" t="s">
+      <c r="B19" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="26" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>4</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="A1:B1"/>
@@ -2129,9 +2417,45 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2139,57 +2463,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="32.77734375" customWidth="1"/>
+    <col min="5" max="5" width="59.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K2" s="38"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2202,7 +2530,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2215,30 +2543,30 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21">
+      <c r="E5" s="40"/>
+      <c r="F5" s="32">
         <v>42856</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="17" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="40"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -2251,100 +2579,98 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="2"/>
       <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2"/>
       <c r="F9" s="10">
         <v>2</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="29"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2"/>
       <c r="F10" s="10">
         <v>3</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2"/>
       <c r="F11" s="10">
         <v>4</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2357,12 +2683,12 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2374,7 +2700,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -2387,195 +2713,158 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="28" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="28" t="s">
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>1</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="26" t="s">
+      <c r="B17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="26" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>2</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="26" t="s">
+      <c r="B18" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="26" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>3</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="26" t="s">
+      <c r="B19" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="26" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>4</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="A1:B1"/>
@@ -2591,6 +2880,43 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2602,59 +2928,58 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K2" s="38"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2667,7 +2992,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2680,30 +3005,30 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21">
+      <c r="E5" s="40"/>
+      <c r="F5" s="32">
         <v>42856</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="17" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="40"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -2716,100 +3041,100 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="2"/>
       <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2"/>
       <c r="F9" s="10">
         <v>2</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="29"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2"/>
       <c r="F10" s="10">
         <v>3</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2"/>
       <c r="F11" s="10">
         <v>4</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2822,12 +3147,12 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2839,7 +3164,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -2852,189 +3177,136 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="28" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="28" t="s">
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>1</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="26" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>2</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="26" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>3</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="26" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>4</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="A1:B1"/>
@@ -3050,6 +3322,43 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3063,122 +3372,122 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
         <v>63</v>
       </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
         <v>64</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B17" s="13" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3191,67 +3500,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" activeCellId="5" sqref="A1:B2 A5:B5 D1:E2 D5:E5 H2:I2 H5:I5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="29.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="39" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K2" s="38"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3264,7 +3573,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3277,30 +3586,30 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="21">
+      <c r="E5" s="31"/>
+      <c r="F5" s="32">
         <v>42856</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="39" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="31"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -3313,102 +3622,102 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="2"/>
       <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2"/>
       <c r="F9" s="10">
         <v>2</v>
       </c>
-      <c r="G9" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2"/>
       <c r="F10" s="10">
         <v>3</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2"/>
       <c r="F11" s="10">
         <v>4</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3421,12 +3730,12 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -3438,7 +3747,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -3451,139 +3760,139 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="28" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="28" t="s">
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>1</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="26" t="s">
+      <c r="B17" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="26" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>2</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="26" t="s">
+      <c r="B18" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="26" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -3598,42 +3907,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="A1:B1"/>
@@ -3649,6 +3922,42 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1"/>
@@ -3661,67 +3970,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:E18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="39" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K2" s="38"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3734,7 +4043,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3747,30 +4056,30 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="21">
+      <c r="E5" s="31"/>
+      <c r="F5" s="32">
         <v>42856</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="39" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="31"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -3783,102 +4092,102 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="2"/>
       <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2"/>
       <c r="F9" s="10">
         <v>2</v>
       </c>
-      <c r="G9" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2"/>
       <c r="F10" s="10">
         <v>3</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2"/>
       <c r="F11" s="10">
         <v>4</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3891,12 +4200,12 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -3908,7 +4217,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -3921,180 +4230,182 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="28" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="28" t="s">
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>1</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="26" t="s">
+      <c r="B17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="26" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>2</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="26" t="s">
+      <c r="B18" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="26" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>3</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="26" t="s">
+      <c r="B19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="26" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>4</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="26" t="s">
+      <c r="B20" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="26" t="s">
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>5</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -4109,47 +4420,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="A1:B1"/>
@@ -4165,6 +4435,47 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G8" r:id="rId1"/>
@@ -4179,62 +4490,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="40.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K2" s="38"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4247,7 +4558,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4260,30 +4571,30 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="21">
+      <c r="E5" s="31"/>
+      <c r="F5" s="32">
         <v>42856</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="17" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="40"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -4296,98 +4607,98 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="2"/>
       <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2"/>
       <c r="F9" s="10">
         <v>2</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="29"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2"/>
       <c r="F10" s="10">
         <v>3</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2"/>
       <c r="F11" s="10">
         <v>4</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4400,12 +4711,12 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4417,7 +4728,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -4430,185 +4741,144 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="28" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="28" t="s">
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>1</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="26" t="s">
+      <c r="B17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="26" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>2</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="26" t="s">
+      <c r="B18" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="26" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="26" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="A1:B1"/>
@@ -4624,6 +4894,43 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4637,63 +4944,64 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="50.109375" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" customWidth="1"/>
+    <col min="10" max="10" width="6.44140625" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K2" s="38"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4706,7 +5014,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4719,30 +5027,30 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21">
+      <c r="E5" s="31"/>
+      <c r="F5" s="32">
         <v>42856</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="17" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="31"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -4755,100 +5063,98 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="2"/>
       <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2"/>
       <c r="F9" s="10">
         <v>2</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="29"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2"/>
       <c r="F10" s="10">
         <v>3</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2"/>
       <c r="F11" s="10">
         <v>4</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4861,12 +5167,12 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4878,7 +5184,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -4891,157 +5197,165 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="28" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="28" t="s">
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>1</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="26" t="s">
+      <c r="B17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="26" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>2</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="26" t="s">
+      <c r="B18" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="26" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>3</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="26" t="s">
+      <c r="B19" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="26" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>4</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>5</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -5056,43 +5370,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="A1:B1"/>
@@ -5108,6 +5385,43 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5118,66 +5432,66 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K2" s="38"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -5190,7 +5504,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -5203,30 +5517,30 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21">
+      <c r="E5" s="40"/>
+      <c r="F5" s="32">
         <v>42856</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="17" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="40"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5239,100 +5553,98 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="2"/>
       <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2"/>
       <c r="F9" s="10">
         <v>2</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="29"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2"/>
       <c r="F10" s="10">
         <v>3</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2"/>
       <c r="F11" s="10">
         <v>4</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -5345,12 +5657,12 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -5362,7 +5674,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -5375,157 +5687,149 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="28" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="28" t="s">
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>1</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="26" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="26" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>2</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="26" t="s">
+      <c r="B18" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="26" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>3</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="26" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="26" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>4</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -5540,43 +5844,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="A1:B1"/>
@@ -5592,8 +5859,46 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5602,66 +5907,66 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D20" sqref="D20:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K2" s="38"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -5674,7 +5979,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -5687,30 +5992,30 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21">
+      <c r="E5" s="40"/>
+      <c r="F5" s="32">
         <v>42856</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="17" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="40"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5723,100 +6028,98 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="2"/>
       <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2"/>
       <c r="F9" s="10">
         <v>2</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="29"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2"/>
       <c r="F10" s="10">
         <v>3</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2"/>
       <c r="F11" s="10">
         <v>4</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -5829,12 +6132,12 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -5846,7 +6149,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -5859,157 +6162,157 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="28" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="28" t="s">
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>1</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="26" t="s">
+      <c r="B17" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="26" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>2</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="26" t="s">
+      <c r="E18" s="14"/>
+      <c r="F18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="26" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>3</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="26" t="s">
+      <c r="B19" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="26" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>4</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -6024,43 +6327,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="A1:B1"/>
@@ -6076,6 +6342,43 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6089,57 +6392,60 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K2" s="38"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -6152,7 +6458,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -6165,30 +6471,30 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21">
+      <c r="E5" s="31"/>
+      <c r="F5" s="32">
         <v>42856</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="17" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="31"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -6201,100 +6507,100 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="2"/>
       <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2"/>
       <c r="F9" s="10">
         <v>2</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="29"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2"/>
       <c r="F10" s="10">
         <v>3</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2"/>
       <c r="F11" s="10">
         <v>4</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6307,12 +6613,12 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -6324,7 +6630,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -6337,195 +6643,152 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="28" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="28" t="s">
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>1</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="26" t="s">
+      <c r="B17" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="26" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>2</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="26" t="s">
+      <c r="B18" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="26" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>3</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="26" t="s">
+      <c r="B19" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="26" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>4</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="A1:B1"/>
@@ -6541,6 +6804,43 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -6555,53 +6855,57 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K2" s="38"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -6614,7 +6918,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -6627,30 +6931,30 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21">
+      <c r="E5" s="40"/>
+      <c r="F5" s="32">
         <v>42856</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="17" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="40"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -6663,100 +6967,98 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="2"/>
       <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2"/>
       <c r="F9" s="10">
         <v>2</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="29"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2"/>
       <c r="F10" s="10">
         <v>3</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2"/>
       <c r="F11" s="10">
         <v>4</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6769,12 +7071,12 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -6786,7 +7088,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -6799,195 +7101,158 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="28" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="28" t="s">
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>1</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="26" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="26" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>2</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="26" t="s">
+      <c r="E18" s="14"/>
+      <c r="F18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="26" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>3</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="26" t="s">
+      <c r="B19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="26" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>4</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="33" t="s">
+      <c r="B20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="15"/>
+      <c r="D20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="A1:B1"/>
@@ -7003,7 +7268,45 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>